--- a/Archive/original-excel-sources/budget_jeanre.xlsx
+++ b/Archive/original-excel-sources/budget_jeanre.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/GIT-Repos-Personal/ftrack/original-excel-sources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/GIT-Repos-Personal/ftrack/Archive/original-excel-sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3179B2-D56E-644A-91FA-4AED95935528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98549102-6A83-F944-AA50-5596676C5CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{F25DD163-696E-F842-A897-5E899A2812A7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="96">
   <si>
     <t>Jeanre Transactional</t>
   </si>
@@ -294,6 +294,36 @@
   </si>
   <si>
     <t xml:space="preserve">from wealth? </t>
+  </si>
+  <si>
+    <t>Debts</t>
+  </si>
+  <si>
+    <t>Lancet</t>
+  </si>
+  <si>
+    <t>Jodine?</t>
+  </si>
+  <si>
+    <t>Henriette Smith</t>
+  </si>
+  <si>
+    <t>Wealth</t>
+  </si>
+  <si>
+    <t>Bestmed</t>
+  </si>
+  <si>
+    <t>Municipal</t>
+  </si>
+  <si>
+    <t>Credit card</t>
+  </si>
+  <si>
+    <t>AIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bernice </t>
   </si>
 </sst>
 </file>
@@ -461,7 +491,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -489,6 +519,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
@@ -554,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -601,6 +637,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,21 +645,25 @@
   <dxfs count="48">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -662,7 +703,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color auto="1"/>
+        <color theme="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
       </font>
@@ -670,7 +711,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -710,7 +751,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color auto="1"/>
+        <color theme="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
       </font>
@@ -718,7 +759,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -758,7 +799,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color auto="1"/>
+        <color theme="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
       </font>
@@ -766,7 +807,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -806,7 +847,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color auto="1"/>
+        <color theme="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
       </font>
@@ -814,7 +855,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -854,7 +895,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color auto="1"/>
+        <color theme="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
       </font>
@@ -862,7 +903,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -887,318 +928,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1249,7 +978,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color auto="1"/>
+        <color theme="1"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1258,9 +987,19 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1309,7 +1048,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color auto="1"/>
+        <color theme="1"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1318,9 +1057,19 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1369,7 +1118,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color auto="1"/>
+        <color theme="1"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1378,9 +1127,19 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1429,9 +1188,131 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color auto="1"/>
         <name val="Aptos Narrow"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -1454,28 +1335,257 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Aptos Narrow"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1514,7 +1624,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1523,19 +1633,9 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1574,7 +1674,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1583,19 +1683,9 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1634,7 +1724,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1643,19 +1733,9 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1694,27 +1774,18 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1739,40 +1810,6 @@
           <bgColor theme="5" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1857,66 +1894,66 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{168AF483-6833-C345-BA9D-0EF06231DA67}" name="jtrn" displayName="jtrn" ref="A1:V41" totalsRowCount="1" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A1:V40" xr:uid="{168AF483-6833-C345-BA9D-0EF06231DA67}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{53007CBC-089F-9844-888D-4AFD025D21A4}" name="Movement" totalsRowLabel="Subtotal" dataDxfId="45" totalsRowDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{E7670F3E-FFC8-B44C-B726-CCCD0DDE580C}" name="Account Secondary" totalsRowLabel="Jeanre Transactional" dataDxfId="43" totalsRowDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{BC34C8F0-D5A8-A942-ACF9-3833C647F3AA}" name="2024-05-01" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="40">
+    <tableColumn id="1" xr3:uid="{53007CBC-089F-9844-888D-4AFD025D21A4}" name="Movement" totalsRowLabel="Subtotal" dataDxfId="45" totalsRowDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{E7670F3E-FFC8-B44C-B726-CCCD0DDE580C}" name="Account Secondary" totalsRowLabel="Jeanre Transactional" dataDxfId="44" totalsRowDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{BC34C8F0-D5A8-A942-ACF9-3833C647F3AA}" name="2024-05-01" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="19">
       <totalsRowFormula>SUMIF('Jeanre Transactional'!$A$2:$A$41,"Credit", 'Jeanre Transactional'!$C$2:$C$41)-SUMIF('Jeanre Transactional'!$A$2:$A$41,"Debit", 'Jeanre Transactional'!$C$2:$C$41)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{12E99681-3EF3-154C-81F1-3C68ABFA379F}" name="2024-06-01" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="38">
+    <tableColumn id="4" xr3:uid="{12E99681-3EF3-154C-81F1-3C68ABFA379F}" name="2024-06-01" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="18">
       <totalsRowFormula>SUMIF('Jeanre Transactional'!$A$2:$A$41,"Credit", 'Jeanre Transactional'!$D$2:$D$41)-SUMIF('Jeanre Transactional'!$A$2:$A$41,"Debit", 'Jeanre Transactional'!$D$2:$D$41)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F853A505-CD2D-424A-AB56-7C307ACC3B35}" name="2024-07-01" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="36">
+    <tableColumn id="5" xr3:uid="{F853A505-CD2D-424A-AB56-7C307ACC3B35}" name="2024-07-01" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="17">
       <totalsRowFormula>SUMIF('Jeanre Transactional'!$A$2:$A$41,"Credit", 'Jeanre Transactional'!$E$2:$E$41)-SUMIF('Jeanre Transactional'!$A$2:$A$41,"Debit", 'Jeanre Transactional'!$E$2:$E$41)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{7A5E017B-4309-9E43-8312-61D7567F2717}" name="2024-08-01" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="6" xr3:uid="{7A5E017B-4309-9E43-8312-61D7567F2717}" name="2024-08-01" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="16">
       <totalsRowFormula>SUMIF('Jeanre Transactional'!$A$2:$A$41,"Credit", 'Jeanre Transactional'!$F$2:$F$41)-SUMIF('Jeanre Transactional'!$A$2:$A$41,"Debit", 'Jeanre Transactional'!$F$2:$F$41)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{35A69827-17E6-D747-80AA-A3903629E38D}" name="2024-09-01" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32">
+    <tableColumn id="7" xr3:uid="{35A69827-17E6-D747-80AA-A3903629E38D}" name="2024-09-01" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="15">
       <totalsRowFormula>SUMIF('Jeanre Transactional'!$A$2:$A$41,"Credit", 'Jeanre Transactional'!$G$2:$G$41)-SUMIF('Jeanre Transactional'!$A$2:$A$41,"Debit", 'Jeanre Transactional'!$G$2:$G$41)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{07201ECD-0600-9049-8CF3-536066F50B85}" name="2024-10-01" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="8" xr3:uid="{07201ECD-0600-9049-8CF3-536066F50B85}" name="2024-10-01" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="14">
       <totalsRowFormula>SUMIF('Jeanre Transactional'!$A$2:$A$41,"Credit", 'Jeanre Transactional'!$H$2:$H$41)-SUMIF('Jeanre Transactional'!$A$2:$A$41,"Debit", 'Jeanre Transactional'!$H$2:$H$41)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{95C89772-EB84-6148-A713-02DB6582171E}" name="2024-11-01" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="9" xr3:uid="{95C89772-EB84-6148-A713-02DB6582171E}" name="2024-11-01" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="13">
       <totalsRowFormula>SUMIF('Jeanre Transactional'!$A$2:$A$41,"Credit", 'Jeanre Transactional'!$I$2:$I$41)-SUMIF('Jeanre Transactional'!$A$2:$A$41,"Debit", 'Jeanre Transactional'!$I$2:$I$41)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{78C2C3D1-00C3-B447-A15B-F22E336A2B58}" name="2024-12-01" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="10" xr3:uid="{78C2C3D1-00C3-B447-A15B-F22E336A2B58}" name="2024-12-01" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="12">
       <totalsRowFormula>SUMIF('Jeanre Transactional'!$A$2:$A$41,"Credit", 'Jeanre Transactional'!$J$2:$J$41)-SUMIF('Jeanre Transactional'!$A$2:$A$41,"Debit", 'Jeanre Transactional'!$J$2:$J$41)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{A6168F27-4891-0749-92DD-57A77D1DACAA}" name="2025-01-01" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="11" xr3:uid="{A6168F27-4891-0749-92DD-57A77D1DACAA}" name="2025-01-01" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="11">
       <totalsRowFormula>SUMIF(jtrn[Movement], "Credit", jtrn[2025-01-01]) - SUMIF(jtrn[Movement], "Debit", jtrn[2025-01-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{58BC0315-6C75-9548-B003-5335630C1315}" name="2025-02-01" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="12" xr3:uid="{58BC0315-6C75-9548-B003-5335630C1315}" name="2025-02-01" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="10">
       <totalsRowFormula>SUMIF(jtrn[Movement], "Credit", jtrn[2025-02-01]) - SUMIF(jtrn[Movement], "Debit", jtrn[2025-02-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{896888D1-CC44-3042-B2FE-75BF30E0F183}" name="2025-03-01" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="13" xr3:uid="{896888D1-CC44-3042-B2FE-75BF30E0F183}" name="2025-03-01" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="9">
       <totalsRowFormula>SUMIF(jtrn[Movement], "Credit", jtrn[2025-03-01]) - SUMIF(jtrn[Movement], "Debit", jtrn[2025-03-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{1670E3CE-2F37-E048-813C-B7C337151740}" name="2025-04-01" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
+    <tableColumn id="14" xr3:uid="{1670E3CE-2F37-E048-813C-B7C337151740}" name="2025-04-01" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="8">
       <totalsRowFormula>SUMIF(jtrn[Movement], "Credit", jtrn[2025-04-01]) - SUMIF(jtrn[Movement], "Debit", jtrn[2025-04-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{6572C763-49E9-AA4F-9718-2BC9B7E57762}" name="2025-05-01" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="15" xr3:uid="{6572C763-49E9-AA4F-9718-2BC9B7E57762}" name="2025-05-01" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="7">
       <totalsRowFormula>SUMIF(jtrn[Movement], "Credit", jtrn[2025-05-01]) - SUMIF(jtrn[Movement], "Debit", jtrn[2025-05-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{99AC582F-E016-EB4C-A534-6BAC5A7AD88A}" name="2025-06-01" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="16" xr3:uid="{99AC582F-E016-EB4C-A534-6BAC5A7AD88A}" name="2025-06-01" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="6">
       <totalsRowFormula>SUMIF(jtrn[Movement], "Credit", jtrn[2025-06-01]) - SUMIF(jtrn[Movement], "Debit", jtrn[2025-06-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{2AFE4E94-A26F-1648-B078-CC1ACB60F61E}" name="2025-07-01" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="17" xr3:uid="{2AFE4E94-A26F-1648-B078-CC1ACB60F61E}" name="2025-07-01" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="5">
       <totalsRowFormula>SUMIF(jtrn[Movement], "Credit", jtrn[2025-07-01]) - SUMIF(jtrn[Movement], "Debit", jtrn[2025-07-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{9169B43F-AE90-B84E-BB9B-3E2730E4B499}" name="2025-08-01" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="18" xr3:uid="{9169B43F-AE90-B84E-BB9B-3E2730E4B499}" name="2025-08-01" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="4">
       <totalsRowFormula>SUMIF(jtrn[Movement], "Credit", jtrn[2025-08-01]) - SUMIF(jtrn[Movement], "Debit", jtrn[2025-08-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{16A4B7C1-DCCD-BC42-80A2-5A9B0AFE62B7}" name="2025-09-01" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="19" xr3:uid="{16A4B7C1-DCCD-BC42-80A2-5A9B0AFE62B7}" name="2025-09-01" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="3">
       <totalsRowFormula>SUMIF(jtrn[Movement], "Credit", jtrn[2025-09-01]) - SUMIF(jtrn[Movement], "Debit", jtrn[2025-09-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{DA0D9353-5004-BC49-A034-377720B302FE}" name="2025-10-01" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="20" xr3:uid="{DA0D9353-5004-BC49-A034-377720B302FE}" name="2025-10-01" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="2">
       <totalsRowFormula>SUMIF(jtrn[Movement], "Credit", jtrn[2025-10-01]) - SUMIF(jtrn[Movement], "Debit", jtrn[2025-10-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{2CAF52BB-84EF-4B4E-9560-96A6E500A093}" name="2025-11-01" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="21" xr3:uid="{2CAF52BB-84EF-4B4E-9560-96A6E500A093}" name="2025-11-01" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="1">
       <totalsRowFormula>SUMIF(jtrn[Movement], "Credit", jtrn[2025-11-01]) - SUMIF(jtrn[Movement], "Debit", jtrn[2025-11-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{2627D4F2-2727-3545-907E-0FB0C0AA352F}" name="2025-12-01" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="22" xr3:uid="{2627D4F2-2727-3545-907E-0FB0C0AA352F}" name="2025-12-01" totalsRowFunction="custom" dataDxfId="24" totalsRowDxfId="0">
       <totalsRowFormula>SUMIF(jtrn[Movement], "Credit", jtrn[2025-12-01]) - SUMIF(jtrn[Movement], "Debit", jtrn[2025-12-01])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -2242,10 +2279,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392F97BE-146F-BF41-B2C2-34275CA1ADBB}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AD70"/>
+  <dimension ref="A1:AD83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="109" workbookViewId="0">
-      <selection activeCell="T47" sqref="T47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="109" workbookViewId="0">
+      <selection activeCell="S79" sqref="S79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2256,8 +2293,8 @@
     <col min="4" max="5" width="15.1640625" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="11" width="15.1640625" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="19" hidden="1" customWidth="1"/>
-    <col min="13" max="16" width="19.33203125" hidden="1" customWidth="1"/>
-    <col min="17" max="22" width="19.33203125" customWidth="1"/>
+    <col min="13" max="17" width="19.33203125" hidden="1" customWidth="1"/>
+    <col min="18" max="22" width="19.33203125" customWidth="1"/>
     <col min="28" max="28" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2381,7 +2418,7 @@
       <c r="Q2" s="7">
         <v>24600</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="7">
         <v>24600</v>
       </c>
       <c r="S2" s="4">
@@ -2449,7 +2486,7 @@
       <c r="Q3" s="7">
         <v>1349</v>
       </c>
-      <c r="R3" s="8">
+      <c r="R3" s="7">
         <v>1169</v>
       </c>
       <c r="S3" s="8">
@@ -2593,25 +2630,25 @@
       <c r="Q7" s="7">
         <v>900</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R7" s="7">
         <f>jtrn[[#Totals],[2025-07-01]]</f>
         <v>1367</v>
       </c>
       <c r="S7" s="8">
         <f>jtrn[[#Totals],[2025-08-01]]</f>
-        <v>1822</v>
+        <v>2656</v>
       </c>
       <c r="T7" s="8">
         <f>jtrn[[#Totals],[2025-09-01]]</f>
-        <v>6877</v>
+        <v>8211</v>
       </c>
       <c r="U7" s="8">
         <f>jtrn[[#Totals],[2025-10-01]]</f>
-        <v>7632</v>
+        <v>9466</v>
       </c>
       <c r="V7" s="8">
         <f>jtrn[[#Totals],[2025-11-01]]</f>
-        <v>6387</v>
+        <v>8721</v>
       </c>
     </row>
     <row r="8" spans="1:22" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.3">
@@ -2698,7 +2735,7 @@
       <c r="Q9" s="7">
         <v>8000</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9" s="7">
         <v>8000</v>
       </c>
       <c r="S9" s="8">
@@ -2834,7 +2871,7 @@
       <c r="Q11" s="32">
         <v>7795</v>
       </c>
-      <c r="R11" s="12">
+      <c r="R11" s="32">
         <v>7795</v>
       </c>
       <c r="S11" s="12">
@@ -2902,7 +2939,7 @@
       <c r="Q12" s="32">
         <v>3577</v>
       </c>
-      <c r="R12" s="12">
+      <c r="R12" s="32">
         <v>3577</v>
       </c>
       <c r="S12" s="12">
@@ -2970,7 +3007,7 @@
       <c r="Q13" s="33">
         <v>6305</v>
       </c>
-      <c r="R13" s="10">
+      <c r="R13" s="46">
         <v>6305</v>
       </c>
       <c r="S13" s="10">
@@ -3038,7 +3075,7 @@
       <c r="Q14" s="32">
         <v>170</v>
       </c>
-      <c r="R14" s="12">
+      <c r="R14" s="32">
         <v>170</v>
       </c>
       <c r="S14" s="12">
@@ -3106,7 +3143,7 @@
       <c r="Q15" s="33">
         <v>117</v>
       </c>
-      <c r="R15" s="10">
+      <c r="R15" s="33">
         <v>117</v>
       </c>
       <c r="S15" s="10">
@@ -3174,8 +3211,8 @@
       <c r="Q16" s="32">
         <v>690</v>
       </c>
-      <c r="R16" s="12">
-        <v>690</v>
+      <c r="R16" s="32">
+        <v>856</v>
       </c>
       <c r="S16" s="12">
         <v>690</v>
@@ -3242,7 +3279,7 @@
       <c r="Q17" s="33">
         <v>610</v>
       </c>
-      <c r="R17" s="10">
+      <c r="R17" s="33">
         <v>610</v>
       </c>
       <c r="S17" s="10">
@@ -3310,7 +3347,7 @@
       <c r="Q18" s="32">
         <v>450</v>
       </c>
-      <c r="R18" s="12">
+      <c r="R18" s="32">
         <v>450</v>
       </c>
       <c r="S18" s="12">
@@ -3446,7 +3483,7 @@
       <c r="Q20" s="32">
         <v>1000</v>
       </c>
-      <c r="R20" s="12">
+      <c r="R20" s="32">
         <v>1000</v>
       </c>
       <c r="S20" s="12">
@@ -3514,7 +3551,7 @@
       <c r="Q21" s="33">
         <v>550</v>
       </c>
-      <c r="R21" s="10">
+      <c r="R21" s="33">
         <v>400</v>
       </c>
       <c r="S21" s="10">
@@ -3733,19 +3770,19 @@
         <v>500</v>
       </c>
       <c r="R25" s="10">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="S25" s="10">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="T25" s="10">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="U25" s="10">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="V25" s="10">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:22" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
@@ -4082,9 +4119,7 @@
       <c r="O33" s="12"/>
       <c r="P33" s="12"/>
       <c r="Q33" s="12"/>
-      <c r="R33" s="12">
-        <v>500</v>
-      </c>
+      <c r="R33" s="12"/>
       <c r="S33" s="12"/>
       <c r="T33" s="12"/>
       <c r="U33" s="12"/>
@@ -4447,23 +4482,23 @@
       </c>
       <c r="R41" s="5">
         <f>SUMIF(jtrn[Movement], "Credit", jtrn[2025-08-01]) - SUMIF(jtrn[Movement], "Debit", jtrn[2025-08-01])</f>
-        <v>1822</v>
+        <v>2656</v>
       </c>
       <c r="S41" s="5">
         <f>SUMIF(jtrn[Movement], "Credit", jtrn[2025-09-01]) - SUMIF(jtrn[Movement], "Debit", jtrn[2025-09-01])</f>
-        <v>6877</v>
+        <v>8211</v>
       </c>
       <c r="T41" s="5">
         <f>SUMIF(jtrn[Movement], "Credit", jtrn[2025-10-01]) - SUMIF(jtrn[Movement], "Debit", jtrn[2025-10-01])</f>
-        <v>7632</v>
+        <v>9466</v>
       </c>
       <c r="U41" s="5">
         <f>SUMIF(jtrn[Movement], "Credit", jtrn[2025-11-01]) - SUMIF(jtrn[Movement], "Debit", jtrn[2025-11-01])</f>
-        <v>6387</v>
+        <v>8721</v>
       </c>
       <c r="V41" s="5">
         <f>SUMIF(jtrn[Movement], "Credit", jtrn[2025-12-01]) - SUMIF(jtrn[Movement], "Debit", jtrn[2025-12-01])</f>
-        <v>7142</v>
+        <v>9976</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="22" x14ac:dyDescent="0.3">
@@ -4535,26 +4570,27 @@
       </c>
       <c r="R42" s="5">
         <f>SUMIF(jtrn[Movement], "Credit", jtrn[2025-08-01]) - SUMIF(jtrn[Movement], "Debit", jtrn[2025-08-01])- SUMIF(jtrn[Account Secondary], "Retained Balance", jtrn[2025-08-01])</f>
-        <v>455</v>
+        <v>1289</v>
       </c>
       <c r="S42" s="5">
         <f>SUMIF(jtrn[Movement], "Credit", jtrn[2025-09-01]) - SUMIF(jtrn[Movement], "Debit", jtrn[2025-09-01])- SUMIF(jtrn[Account Secondary], "Retained Balance", jtrn[2025-09-01])</f>
-        <v>5055</v>
+        <v>5555</v>
       </c>
       <c r="T42" s="5">
         <f>SUMIF(jtrn[Movement], "Credit", jtrn[2025-10-01]) - SUMIF(jtrn[Movement], "Debit", jtrn[2025-10-01])- SUMIF(jtrn[Account Secondary], "Retained Balance", jtrn[2025-10-01])</f>
-        <v>755</v>
+        <v>1255</v>
       </c>
       <c r="U42" s="5">
         <f>SUMIF(jtrn[Movement], "Credit", jtrn[2025-11-01]) - SUMIF(jtrn[Movement], "Debit", jtrn[2025-11-01])- SUMIF(jtrn[Account Secondary], "Retained Balance", jtrn[2025-11-01])</f>
-        <v>-1245</v>
+        <v>-745</v>
       </c>
       <c r="V42" s="5">
         <f>SUMIF(jtrn[Movement], "Credit", jtrn[2025-12-01]) - SUMIF(jtrn[Movement], "Debit", jtrn[2025-12-01])- SUMIF(jtrn[Account Secondary], "Retained Balance", jtrn[2025-12-01])</f>
-        <v>755</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="O46" s="1" t="s">
         <v>65</v>
       </c>
@@ -4590,7 +4626,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="S47" s="45" t="s">
         <v>75</v>
       </c>
@@ -4613,7 +4649,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="S48" t="s">
         <v>78</v>
       </c>
@@ -4630,7 +4666,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="49" spans="19:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="19:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="S49" t="s">
         <v>79</v>
       </c>
@@ -4647,7 +4683,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="19:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="19:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="T50" s="43">
         <f>SUM(T46:T49)</f>
         <v>22803.22</v>
@@ -4659,7 +4695,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="19:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="19:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="V51" s="42" t="s">
         <v>72</v>
       </c>
@@ -4667,7 +4703,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="52" spans="19:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="19:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="V52" s="42" t="s">
         <v>73</v>
       </c>
@@ -4675,7 +4711,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="53" spans="19:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="19:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="S53" s="42" t="s">
         <v>81</v>
       </c>
@@ -4689,7 +4725,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="54" spans="19:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="19:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="V54" s="42" t="s">
         <v>76</v>
       </c>
@@ -4697,7 +4733,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="55" spans="19:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="19:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="S55" t="s">
         <v>82</v>
       </c>
@@ -4711,7 +4747,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="19:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="19:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="V56" s="42" t="s">
         <v>77</v>
       </c>
@@ -4719,14 +4755,22 @@
         <v>290</v>
       </c>
     </row>
-    <row r="57" spans="19:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="19:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="V57" s="42"/>
       <c r="W57" s="42">
         <f>SUM(W46:W56)</f>
         <v>5928</v>
       </c>
     </row>
-    <row r="66" spans="19:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="19:23" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="19:23" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="19:23" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="19:23" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="19:23" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="19:23" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="19:23" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="2:22" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="S66" t="s">
         <v>51</v>
       </c>
@@ -4734,7 +4778,8 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="68" spans="19:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="S68" t="s">
         <v>61</v>
       </c>
@@ -4742,7 +4787,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="69" spans="19:22" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="S69" t="s">
         <v>84</v>
       </c>
@@ -4750,7 +4795,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="70" spans="19:22" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="T70" s="45">
         <f>SUM(T66:T69)</f>
         <v>2811</v>
@@ -4763,13 +4808,90 @@
         <v>85</v>
       </c>
     </row>
+    <row r="71" spans="2:22" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>86</v>
+      </c>
+      <c r="R73" t="s">
+        <v>87</v>
+      </c>
+      <c r="S73">
+        <v>2500</v>
+      </c>
+      <c r="T73" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="R74" t="s">
+        <v>89</v>
+      </c>
+      <c r="S74" s="42">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="R75" t="s">
+        <v>90</v>
+      </c>
+      <c r="S75" s="42">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="R76" t="s">
+        <v>91</v>
+      </c>
+      <c r="S76">
+        <v>6305</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="R77" t="s">
+        <v>92</v>
+      </c>
+      <c r="S77">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="78" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="R78" t="s">
+        <v>93</v>
+      </c>
+      <c r="S78" s="42">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="R79" t="s">
+        <v>94</v>
+      </c>
+      <c r="S79" s="42">
+        <v>-4008</v>
+      </c>
+    </row>
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="R80" t="s">
+        <v>95</v>
+      </c>
+      <c r="S80">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="83" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S83">
+        <f>SUM(S74:S82)</f>
+        <v>20807</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="M41:V42">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
